--- a/Arquivos/Compras_Backup.xlsx
+++ b/Arquivos/Compras_Backup.xlsx
@@ -3,24 +3,32 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
   <workbookPr/>
   <sheets>
-    <sheet state="visible" name="Estoque" sheetId="1" r:id="rId4"/>
+    <sheet state="visible" name="Métodos" sheetId="1" r:id="rId4"/>
     <sheet state="visible" name="Produtos" sheetId="2" r:id="rId5"/>
-    <sheet state="visible" name="Métodos" sheetId="3" r:id="rId6"/>
-    <sheet state="visible" name="P_Vendas" sheetId="4" r:id="rId7"/>
-    <sheet state="visible" name="Vendas" sheetId="5" r:id="rId8"/>
+    <sheet state="visible" name="P_Vendas" sheetId="3" r:id="rId6"/>
+    <sheet state="visible" name="Vendas" sheetId="4" r:id="rId7"/>
+    <sheet state="visible" name="P_Compras" sheetId="5" r:id="rId8"/>
+    <sheet state="visible" name="Compras" sheetId="6" r:id="rId9"/>
+    <sheet state="visible" name="Estoque" sheetId="7" r:id="rId10"/>
   </sheets>
   <definedNames/>
   <calcPr/>
   <extLst>
     <ext uri="GoogleSheetsCustomDataVersion1">
-      <go:sheetsCustomData xmlns:go="http://customooxmlschemas.google.com/" r:id="rId9" roundtripDataSignature="AMtx7miLZOAysPvhFZPy6+gvbutTbZmy8w=="/>
+      <go:sheetsCustomData xmlns:go="http://customooxmlschemas.google.com/" r:id="rId11" roundtripDataSignature="AMtx7mhP/SofUKtz3QeT3GBZGW2kzlwO4Q=="/>
     </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="22">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="73" uniqueCount="27">
+  <si>
+    <t>Método</t>
+  </si>
+  <si>
+    <t>Pacote</t>
+  </si>
   <si>
     <t>Produto</t>
   </si>
@@ -28,81 +36,88 @@
     <t>Marca</t>
   </si>
   <si>
-    <t>Método</t>
+    <t>Método_Compra</t>
+  </si>
+  <si>
+    <t>Método_Venda</t>
+  </si>
+  <si>
+    <t>Valor_Compra</t>
+  </si>
+  <si>
+    <t>Valor_Venda</t>
+  </si>
+  <si>
+    <t>ReporEstoquepProd</t>
+  </si>
+  <si>
+    <t>Ração</t>
+  </si>
+  <si>
+    <t>Pedigree</t>
+  </si>
+  <si>
+    <t>Não</t>
+  </si>
+  <si>
+    <t>Gramas</t>
+  </si>
+  <si>
+    <t>ID</t>
   </si>
   <si>
     <t>Quantidade</t>
   </si>
   <si>
-    <t>Valor_Compra</t>
-  </si>
-  <si>
-    <t>Valor_Venda</t>
-  </si>
-  <si>
-    <t>Ração</t>
-  </si>
-  <si>
-    <t>Pedigree</t>
-  </si>
-  <si>
-    <t>Pacote</t>
-  </si>
-  <si>
-    <t>Método_Venda</t>
-  </si>
-  <si>
-    <t>Método_Compra</t>
-  </si>
-  <si>
-    <t>ReporEstoquepProd</t>
+    <t>Valor_Un</t>
+  </si>
+  <si>
+    <t>Valor_Total</t>
+  </si>
+  <si>
+    <t>QItens</t>
+  </si>
+  <si>
+    <t>Frete</t>
+  </si>
+  <si>
+    <t>Desconto</t>
+  </si>
+  <si>
+    <t>Sorteio</t>
+  </si>
+  <si>
+    <t>MétodoPagamento</t>
+  </si>
+  <si>
+    <t>Comentários</t>
+  </si>
+  <si>
+    <t>Data</t>
   </si>
   <si>
     <t>Sim</t>
   </si>
   <si>
-    <t>Métodos</t>
-  </si>
-  <si>
-    <t>Num_Venda</t>
-  </si>
-  <si>
-    <t>Valor</t>
-  </si>
-  <si>
-    <t>Valor_Total</t>
-  </si>
-  <si>
-    <t>Valor_Ganho</t>
-  </si>
-  <si>
-    <t>Frete</t>
-  </si>
-  <si>
-    <t>Desconto</t>
-  </si>
-  <si>
-    <t>Método_Pagamento</t>
-  </si>
-  <si>
-    <t>Comentário</t>
+    <t>Pix</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> </t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <numFmts count="1">
+    <numFmt numFmtId="164" formatCode="dd/mm/yyyy"/>
+  </numFmts>
   <fonts count="4">
     <font>
       <sz val="11.0"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11.0"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
     </font>
     <font>
       <color theme="1"/>
@@ -112,6 +127,11 @@
       <color theme="1"/>
       <name val="Calibri"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11.0"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
     </font>
   </fonts>
   <fills count="2">
@@ -142,23 +162,26 @@
   <cellStyleXfs count="1">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="7">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
-    <xf borderId="1" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf borderId="1" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="center" readingOrder="0" vertical="top"/>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment readingOrder="0"/>
     </xf>
     <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyFont="1"/>
+    <xf borderId="0" fillId="0" fontId="2" numFmtId="164" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
       <alignment readingOrder="0"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyFont="1"/>
+    <xf borderId="1" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf borderId="1" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment horizontal="center" readingOrder="0" vertical="top"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle xfId="0" name="Normal" builtinId="0"/>
@@ -184,6 +207,14 @@
 </file>
 
 <file path=xl/drawings/drawing5.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:x3Unk="http://schemas.microsoft.com/office/drawing/2010/slicer" xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer"/>
+</file>
+
+<file path=xl/drawings/drawing6.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:x3Unk="http://schemas.microsoft.com/office/drawing/2010/slicer" xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer"/>
+</file>
+
+<file path=xl/drawings/drawing7.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:x3Unk="http://schemas.microsoft.com/office/drawing/2010/slicer" xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer"/>
 </file>
 
@@ -384,6 +415,384 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
   <sheetPr>
+    <outlinePr summaryBelow="0" summaryRight="0"/>
+  </sheetPr>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr customHeight="1" defaultColWidth="14.43" defaultRowHeight="15.0"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="s">
+        <v>1</v>
+      </c>
+    </row>
+  </sheetData>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="0" summaryRight="0"/>
+  </sheetPr>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr customHeight="1" defaultColWidth="14.43" defaultRowHeight="15.0"/>
+  <cols>
+    <col customWidth="1" min="5" max="5" width="16.86"/>
+    <col customWidth="1" min="7" max="7" width="19.71"/>
+  </cols>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="B1" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="C1" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="E1" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="G1" s="2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="E2" s="2">
+        <v>10.0</v>
+      </c>
+      <c r="F2" s="2">
+        <v>20.0</v>
+      </c>
+      <c r="G2" s="2" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="D3" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="E3" s="2">
+        <v>10.0</v>
+      </c>
+      <c r="F3" s="2">
+        <v>30.0</v>
+      </c>
+      <c r="G3" s="2" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="C8" s="3"/>
+      <c r="D8" s="3"/>
+    </row>
+  </sheetData>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="0" summaryRight="0"/>
+  </sheetPr>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr customHeight="1" defaultColWidth="14.43" defaultRowHeight="15.0"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2">
+        <v>10000.0</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="E2" s="2">
+        <v>5.0</v>
+      </c>
+      <c r="F2" s="2">
+        <v>20.0</v>
+      </c>
+      <c r="G2" s="2">
+        <v>100.0</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2">
+        <v>10000.0</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="D3" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="E3" s="2">
+        <v>100.0</v>
+      </c>
+      <c r="F3" s="2">
+        <v>30.0</v>
+      </c>
+      <c r="G3" s="2">
+        <v>3000.0</v>
+      </c>
+    </row>
+  </sheetData>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="0" summaryRight="0"/>
+  </sheetPr>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr customHeight="1" defaultColWidth="14.43" defaultRowHeight="15.0"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="E1" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="F1" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="G1" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="H1" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="I1" s="2" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2">
+        <v>10000.0</v>
+      </c>
+      <c r="B2" s="2">
+        <v>105.0</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="D2" s="2">
+        <v>0.0</v>
+      </c>
+      <c r="E2" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="F2" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="G2" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="H2" s="2">
+        <v>3100.0</v>
+      </c>
+      <c r="I2" s="4">
+        <v>44934.0</v>
+      </c>
+    </row>
+  </sheetData>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="0" summaryRight="0"/>
+  </sheetPr>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr customHeight="1" defaultColWidth="14.43" defaultRowHeight="15.0"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="E1" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="F1" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="G1" s="2" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2">
+        <v>1.0</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="E2" s="2">
+        <v>2.0</v>
+      </c>
+      <c r="F2" s="2">
+        <v>10.0</v>
+      </c>
+      <c r="G2" s="2">
+        <v>20.0</v>
+      </c>
+    </row>
+  </sheetData>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="0" summaryRight="0"/>
+  </sheetPr>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr customHeight="1" defaultColWidth="14.43" defaultRowHeight="15.0"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2">
+        <v>1.0</v>
+      </c>
+      <c r="B2" s="2">
+        <v>2.0</v>
+      </c>
+      <c r="C2" s="4">
+        <v>44934.0</v>
+      </c>
+      <c r="D2" s="2">
+        <v>20.0</v>
+      </c>
+    </row>
+  </sheetData>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+  <sheetPr>
     <pageSetUpPr/>
   </sheetPr>
   <sheetViews>
@@ -392,48 +801,70 @@
   <sheetFormatPr customHeight="1" defaultColWidth="14.43" defaultRowHeight="15.0"/>
   <cols>
     <col customWidth="1" min="1" max="2" width="8.71"/>
-    <col customWidth="1" min="3" max="3" width="13.57"/>
+    <col customWidth="1" min="3" max="3" width="15.57"/>
     <col customWidth="1" min="4" max="4" width="17.0"/>
-    <col customWidth="1" min="5" max="26" width="8.71"/>
+    <col customWidth="1" min="5" max="5" width="12.71"/>
+    <col customWidth="1" min="6" max="6" width="14.57"/>
+    <col customWidth="1" min="7" max="26" width="8.71"/>
   </cols>
   <sheetData>
     <row r="1">
-      <c r="A1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" s="2" t="s">
+      <c r="A1" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="2" t="s">
+      <c r="B1" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="3" t="s">
+      <c r="C1" s="6" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="4" t="s">
+      <c r="D1" s="6" t="s">
         <v>5</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="F1" s="2" t="s">
+        <v>6</v>
       </c>
     </row>
     <row r="2">
-      <c r="A2" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="B2" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="C2" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="D2" s="4">
+      <c r="A2" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="E2" s="2">
+        <v>10.0</v>
+      </c>
+      <c r="F2" s="2">
+        <v>10.0</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="D3" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="E3" s="2">
         <v>100.0</v>
       </c>
-      <c r="E2" s="4">
-        <v>10.0</v>
-      </c>
-      <c r="F2" s="4">
+      <c r="F3" s="2">
         <v>10.0</v>
       </c>
     </row>
@@ -1423,170 +1854,4 @@
   <pageSetup orientation="landscape"/>
   <drawing r:id="rId1"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="0" summaryRight="0"/>
-  </sheetPr>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr customHeight="1" defaultColWidth="14.43" defaultRowHeight="15.0"/>
-  <cols>
-    <col customWidth="1" min="5" max="5" width="16.86"/>
-  </cols>
-  <sheetData>
-    <row r="1">
-      <c r="A1" s="5" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="5" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" s="4" t="s">
-        <v>5</v>
-      </c>
-      <c r="D1" s="4" t="s">
-        <v>4</v>
-      </c>
-      <c r="E1" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="F1" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="G1" s="4" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="B2" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="C2" s="4">
-        <v>20.0</v>
-      </c>
-      <c r="D2" s="4">
-        <v>10.0</v>
-      </c>
-      <c r="E2" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="F2" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="G2" s="4" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="C8" s="5"/>
-      <c r="D8" s="5"/>
-    </row>
-  </sheetData>
-  <drawing r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="0" summaryRight="0"/>
-  </sheetPr>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr customHeight="1" defaultColWidth="14.43" defaultRowHeight="15.0"/>
-  <sheetData>
-    <row r="1">
-      <c r="A1" s="5" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" s="4" t="s">
-        <v>8</v>
-      </c>
-    </row>
-  </sheetData>
-  <drawing r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="0" summaryRight="0"/>
-  </sheetPr>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr customHeight="1" defaultColWidth="14.43" defaultRowHeight="15.0"/>
-  <sheetData>
-    <row r="1">
-      <c r="A1" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="B1" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="C1" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="D1" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="E1" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="F1" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="G1" s="3" t="s">
-        <v>16</v>
-      </c>
-    </row>
-  </sheetData>
-  <drawing r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="0" summaryRight="0"/>
-  </sheetPr>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr customHeight="1" defaultColWidth="14.43" defaultRowHeight="15.0"/>
-  <sheetData>
-    <row r="1">
-      <c r="A1" s="4" t="s">
-        <v>14</v>
-      </c>
-      <c r="B1" s="4" t="s">
-        <v>17</v>
-      </c>
-      <c r="C1" s="4" t="s">
-        <v>18</v>
-      </c>
-      <c r="D1" s="4" t="s">
-        <v>19</v>
-      </c>
-      <c r="E1" s="4" t="s">
-        <v>20</v>
-      </c>
-      <c r="F1" s="4" t="s">
-        <v>21</v>
-      </c>
-    </row>
-  </sheetData>
-  <drawing r:id="rId1"/>
-</worksheet>
 </file>
--- a/Arquivos/Compras_Backup.xlsx
+++ b/Arquivos/Compras_Backup.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="73" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="76" uniqueCount="26">
   <si>
     <t>Método</t>
   </si>
@@ -82,9 +82,6 @@
   </si>
   <si>
     <t>Desconto</t>
-  </si>
-  <si>
-    <t>Sorteio</t>
   </si>
   <si>
     <t>MétodoPagamento</t>
@@ -608,6 +605,29 @@
         <v>3000.0</v>
       </c>
     </row>
+    <row r="4">
+      <c r="A4" s="2">
+        <v>10001.0</v>
+      </c>
+      <c r="B4" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="C4" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="D4" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="E4" s="2">
+        <v>8.0</v>
+      </c>
+      <c r="F4" s="2">
+        <v>20.0</v>
+      </c>
+      <c r="G4" s="2">
+        <v>160.0</v>
+      </c>
+    </row>
   </sheetData>
   <drawing r:id="rId1"/>
 </worksheet>
@@ -643,13 +663,10 @@
         <v>21</v>
       </c>
       <c r="G1" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="H1" s="2" t="s">
         <v>22</v>
-      </c>
-      <c r="H1" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="I1" s="2" t="s">
-        <v>23</v>
       </c>
     </row>
     <row r="2">
@@ -660,25 +677,45 @@
         <v>105.0</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="D2" s="2">
         <v>0.0</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>11</v>
+        <v>24</v>
       </c>
       <c r="F2" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="G2" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="H2" s="2">
+      <c r="G2" s="2">
         <v>3100.0</v>
       </c>
-      <c r="I2" s="4">
+      <c r="H2" s="4">
         <v>44934.0</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2">
+        <v>10001.0</v>
+      </c>
+      <c r="B3" s="2">
+        <v>8.0</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="D3" s="2">
+        <v>0.0</v>
+      </c>
+      <c r="E3" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="G3" s="2">
+        <v>160.0</v>
+      </c>
+      <c r="H3" s="4">
+        <v>44665.0</v>
       </c>
     </row>
   </sheetData>
@@ -765,7 +802,7 @@
         <v>17</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="D1" s="2" t="s">
         <v>16</v>

--- a/Arquivos/Compras_Backup.xlsx
+++ b/Arquivos/Compras_Backup.xlsx
@@ -22,14 +22,11 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="76" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38" uniqueCount="18">
   <si>
     <t>Método</t>
   </si>
   <si>
-    <t>Pacote</t>
-  </si>
-  <si>
     <t>Produto</t>
   </si>
   <si>
@@ -51,18 +48,6 @@
     <t>ReporEstoquepProd</t>
   </si>
   <si>
-    <t>Ração</t>
-  </si>
-  <si>
-    <t>Pedigree</t>
-  </si>
-  <si>
-    <t>Não</t>
-  </si>
-  <si>
-    <t>Gramas</t>
-  </si>
-  <si>
     <t>ID</t>
   </si>
   <si>
@@ -91,15 +76,6 @@
   </si>
   <si>
     <t>Data</t>
-  </si>
-  <si>
-    <t>Sim</t>
-  </si>
-  <si>
-    <t>Pix</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> </t>
   </si>
 </sst>
 </file>
@@ -159,17 +135,17 @@
   <cellStyleXfs count="1">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="9">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
     <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0"/>
     </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyFont="1"/>
     <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyFont="1"/>
     <xf borderId="0" fillId="0" fontId="2" numFmtId="164" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
       <alignment readingOrder="0"/>
     </xf>
@@ -178,6 +154,12 @@
     </xf>
     <xf borderId="1" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment horizontal="center" readingOrder="0" vertical="top"/>
+    </xf>
+    <xf borderId="1" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment readingOrder="0"/>
+    </xf>
+    <xf borderId="1" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment readingOrder="0"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -424,11 +406,6 @@
         <v>0</v>
       </c>
     </row>
-    <row r="2">
-      <c r="A2" s="2" t="s">
-        <v>1</v>
-      </c>
-    </row>
   </sheetData>
   <drawing r:id="rId1"/>
 </worksheet>
@@ -449,77 +426,31 @@
   </cols>
   <sheetData>
     <row r="1">
-      <c r="A1" s="3" t="s">
+      <c r="A1" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="B1" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="B1" s="3" t="s">
+      <c r="C1" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="C1" s="3" t="s">
+      <c r="D1" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="D1" s="2" t="s">
+      <c r="E1" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="E1" s="2" t="s">
+      <c r="F1" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="G1" s="3" t="s">
         <v>7</v>
-      </c>
-      <c r="G1" s="2" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="B2" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="C2" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="D2" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="E2" s="2">
-        <v>10.0</v>
-      </c>
-      <c r="F2" s="2">
-        <v>20.0</v>
-      </c>
-      <c r="G2" s="2" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="B3" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="C3" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="D3" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="E3" s="2">
-        <v>10.0</v>
-      </c>
-      <c r="F3" s="2">
-        <v>30.0</v>
-      </c>
-      <c r="G3" s="2" t="s">
-        <v>11</v>
       </c>
     </row>
     <row r="8">
-      <c r="C8" s="3"/>
-      <c r="D8" s="3"/>
+      <c r="C8" s="2"/>
+      <c r="D8" s="2"/>
     </row>
   </sheetData>
   <drawing r:id="rId1"/>
@@ -538,94 +469,25 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="1" t="s">
-        <v>13</v>
+        <v>8</v>
       </c>
       <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
         <v>2</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>3</v>
       </c>
       <c r="D1" s="1" t="s">
         <v>0</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" s="2">
-        <v>10000.0</v>
-      </c>
-      <c r="B2" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="C2" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="D2" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="E2" s="2">
-        <v>5.0</v>
-      </c>
-      <c r="F2" s="2">
-        <v>20.0</v>
-      </c>
-      <c r="G2" s="2">
-        <v>100.0</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" s="2">
-        <v>10000.0</v>
-      </c>
-      <c r="B3" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="C3" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="D3" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="E3" s="2">
-        <v>100.0</v>
-      </c>
-      <c r="F3" s="2">
-        <v>30.0</v>
-      </c>
-      <c r="G3" s="2">
-        <v>3000.0</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" s="2">
-        <v>10001.0</v>
-      </c>
-      <c r="B4" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="C4" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="D4" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="E4" s="2">
-        <v>8.0</v>
-      </c>
-      <c r="F4" s="2">
-        <v>20.0</v>
-      </c>
-      <c r="G4" s="2">
-        <v>160.0</v>
+        <v>11</v>
       </c>
     </row>
   </sheetData>
@@ -644,79 +506,36 @@
   <sheetFormatPr customHeight="1" defaultColWidth="14.43" defaultRowHeight="15.0"/>
   <sheetData>
     <row r="1">
-      <c r="A1" s="2" t="s">
+      <c r="A1" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="B1" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="C1" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="B1" s="2" t="s">
+      <c r="D1" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="E1" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="F1" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="G1" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="H1" s="3" t="s">
         <v>17</v>
-      </c>
-      <c r="C1" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="D1" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="E1" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="F1" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="G1" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="H1" s="2" t="s">
-        <v>22</v>
       </c>
     </row>
     <row r="2">
-      <c r="A2" s="2">
-        <v>10000.0</v>
-      </c>
-      <c r="B2" s="2">
-        <v>105.0</v>
-      </c>
-      <c r="C2" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="D2" s="2">
-        <v>0.0</v>
-      </c>
-      <c r="E2" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="F2" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="G2" s="2">
-        <v>3100.0</v>
-      </c>
-      <c r="H2" s="4">
-        <v>44934.0</v>
-      </c>
+      <c r="H2" s="4"/>
     </row>
     <row r="3">
-      <c r="A3" s="2">
-        <v>10001.0</v>
-      </c>
-      <c r="B3" s="2">
-        <v>8.0</v>
-      </c>
-      <c r="C3" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="D3" s="2">
-        <v>0.0</v>
-      </c>
-      <c r="E3" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="G3" s="2">
-        <v>160.0</v>
-      </c>
-      <c r="H3" s="4">
-        <v>44665.0</v>
-      </c>
+      <c r="H3" s="4"/>
     </row>
   </sheetData>
   <drawing r:id="rId1"/>
@@ -734,49 +553,26 @@
   <sheetFormatPr customHeight="1" defaultColWidth="14.43" defaultRowHeight="15.0"/>
   <sheetData>
     <row r="1">
-      <c r="A1" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="B1" s="2" t="s">
+      <c r="A1" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="B1" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="C1" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="D1" s="2" t="s">
+      <c r="D1" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="E1" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="F1" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="G1" s="2" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" s="2">
-        <v>1.0</v>
-      </c>
-      <c r="B2" s="2" t="s">
+      <c r="E1" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="C2" s="2" t="s">
+      <c r="F1" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="D2" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="E2" s="2">
-        <v>2.0</v>
-      </c>
-      <c r="F2" s="2">
-        <v>10.0</v>
-      </c>
-      <c r="G2" s="2">
-        <v>20.0</v>
+      <c r="G1" s="3" t="s">
+        <v>11</v>
       </c>
     </row>
   </sheetData>
@@ -795,32 +591,21 @@
   <sheetFormatPr customHeight="1" defaultColWidth="14.43" defaultRowHeight="15.0"/>
   <sheetData>
     <row r="1">
-      <c r="A1" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="B1" s="2" t="s">
+      <c r="A1" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="B1" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="C1" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="C1" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="D1" s="2" t="s">
-        <v>16</v>
+      <c r="D1" s="3" t="s">
+        <v>11</v>
       </c>
     </row>
     <row r="2">
-      <c r="A2" s="2">
-        <v>1.0</v>
-      </c>
-      <c r="B2" s="2">
-        <v>2.0</v>
-      </c>
-      <c r="C2" s="4">
-        <v>44934.0</v>
-      </c>
-      <c r="D2" s="2">
-        <v>20.0</v>
-      </c>
+      <c r="C2" s="4"/>
     </row>
   </sheetData>
   <drawing r:id="rId1"/>
@@ -847,63 +632,29 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="B1" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="B1" s="5" t="s">
-        <v>3</v>
-      </c>
       <c r="C1" s="6" t="s">
-        <v>4</v>
-      </c>
-      <c r="D1" s="6" t="s">
-        <v>5</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="F1" s="2" t="s">
-        <v>6</v>
+        <v>0</v>
+      </c>
+      <c r="D1" s="7" t="s">
+        <v>9</v>
       </c>
     </row>
     <row r="2">
-      <c r="A2" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="B2" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="C2" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="D2" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="E2" s="2">
-        <v>10.0</v>
-      </c>
-      <c r="F2" s="2">
-        <v>10.0</v>
-      </c>
+      <c r="A2" s="8"/>
+      <c r="B2" s="8"/>
+      <c r="C2" s="8"/>
+      <c r="D2" s="8"/>
     </row>
     <row r="3">
-      <c r="A3" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="B3" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="C3" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="D3" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="E3" s="2">
-        <v>100.0</v>
-      </c>
-      <c r="F3" s="2">
-        <v>10.0</v>
-      </c>
+      <c r="A3" s="8"/>
+      <c r="B3" s="8"/>
+      <c r="C3" s="8"/>
+      <c r="D3" s="8"/>
     </row>
     <row r="21" ht="15.75" customHeight="1"/>
     <row r="22" ht="15.75" customHeight="1"/>

--- a/Arquivos/Compras_Backup.xlsx
+++ b/Arquivos/Compras_Backup.xlsx
@@ -15,14 +15,14 @@
   <calcPr/>
   <extLst>
     <ext uri="GoogleSheetsCustomDataVersion1">
-      <go:sheetsCustomData xmlns:go="http://customooxmlschemas.google.com/" r:id="rId11" roundtripDataSignature="AMtx7mhP/SofUKtz3QeT3GBZGW2kzlwO4Q=="/>
+      <go:sheetsCustomData xmlns:go="http://customooxmlschemas.google.com/" r:id="rId11" roundtripDataSignature="AMtx7mhmluIHSJkbdNKtdJEsoODADXP2NA=="/>
     </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38" uniqueCount="18">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="37" uniqueCount="17">
   <si>
     <t>Método</t>
   </si>
@@ -43,9 +43,6 @@
   </si>
   <si>
     <t>Valor_Venda</t>
-  </si>
-  <si>
-    <t>ReporEstoquepProd</t>
   </si>
   <si>
     <t>ID</t>
@@ -444,9 +441,6 @@
       <c r="F1" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="G1" s="3" t="s">
-        <v>7</v>
-      </c>
     </row>
     <row r="8">
       <c r="C8" s="2"/>
@@ -469,7 +463,7 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>1</v>
@@ -481,13 +475,13 @@
         <v>0</v>
       </c>
       <c r="E1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="F1" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="G1" s="1" t="s">
         <v>10</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>11</v>
       </c>
     </row>
   </sheetData>
@@ -507,28 +501,28 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="3" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B1" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="C1" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="C1" s="3" t="s">
+      <c r="D1" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="D1" s="3" t="s">
+      <c r="E1" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="E1" s="3" t="s">
+      <c r="F1" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="F1" s="3" t="s">
+      <c r="G1" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="H1" s="3" t="s">
         <v>16</v>
-      </c>
-      <c r="G1" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="H1" s="3" t="s">
-        <v>17</v>
       </c>
     </row>
     <row r="2">
@@ -554,7 +548,7 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="3" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B1" s="3" t="s">
         <v>1</v>
@@ -566,13 +560,13 @@
         <v>0</v>
       </c>
       <c r="E1" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="F1" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="F1" s="3" t="s">
+      <c r="G1" s="3" t="s">
         <v>10</v>
-      </c>
-      <c r="G1" s="3" t="s">
-        <v>11</v>
       </c>
     </row>
   </sheetData>
@@ -592,16 +586,16 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="3" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B1" s="3" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C1" s="3" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="D1" s="3" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="2">
@@ -641,7 +635,7 @@
         <v>0</v>
       </c>
       <c r="D1" s="7" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="2">
